--- a/datasets/Statistiques Descriptives.xlsx
+++ b/datasets/Statistiques Descriptives.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://jemsprod-my.sharepoint.com/personal/asardellitti_jems-group_com/Documents/Bureau/STA/datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="320" documentId="13_ncr:1_{37F85C81-DEB9-483E-AD19-E6A24A0C1D25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DA47DACE-F263-4437-ABAB-0D38CFA259E8}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9DEFA818-E3B8-45EC-B714-C9DC21E00F04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-7830" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-4410" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Iris" sheetId="4" r:id="rId1"/>
     <sheet name="Titanic" sheetId="5" r:id="rId2"/>
-    <sheet name="Iris_correction" sheetId="1" r:id="rId3"/>
-    <sheet name="Titanic_correction" sheetId="2" r:id="rId4"/>
+    <sheet name="Iris_correction" sheetId="1" state="hidden" r:id="rId3"/>
+    <sheet name="Titanic_correction" sheetId="2" state="hidden" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Iris!$A$1:$F$151</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Iris_correction!$A$1:$F$151</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Titanic!$A$1:$F$1314</definedName>
     <definedName name="_xlchart.v1.0" hidden="1">Iris_correction!$B$1</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">Iris_correction!$B$2:$B$151</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">Iris_correction!$Q$25</definedName>
@@ -4553,7 +4554,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4748,6 +4749,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5045,7 +5058,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5124,6 +5137,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -5148,16 +5171,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="164" fontId="0" fillId="36" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="164" fontId="0" fillId="37" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -5209,10 +5231,10 @@
       <numFmt numFmtId="13" formatCode="0%"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
+      <numFmt numFmtId="164" formatCode="0.0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
+      <numFmt numFmtId="13" formatCode="0%"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.0"/>
@@ -7719,7 +7741,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Exercices_Statistiques_enonce.xlsx]Titanic_correction!Tableau croisé dynamique7</c:name>
+    <c:name>[Statistiques Descriptives.xlsx]Titanic_correction!Tableau croisé dynamique7</c:name>
     <c:fmtId val="1"/>
   </c:pivotSource>
   <c:chart>
@@ -8355,7 +8377,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Exercices_Statistiques_enonce.xlsx]Titanic_correction!Tableau croisé dynamique8</c:name>
+    <c:name>[Statistiques Descriptives.xlsx]Titanic_correction!Tableau croisé dynamique8</c:name>
     <c:fmtId val="4"/>
   </c:pivotSource>
   <c:chart>
@@ -8858,7 +8880,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Exercices_Statistiques_enonce.xlsx]Titanic_correction!Tableau croisé dynamique9</c:name>
+    <c:name>[Statistiques Descriptives.xlsx]Titanic_correction!Tableau croisé dynamique9</c:name>
     <c:fmtId val="4"/>
   </c:pivotSource>
   <c:chart>
@@ -9346,7 +9368,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Exercices_Statistiques_enonce.xlsx]Titanic_correction!Tableau croisé dynamique10</c:name>
+    <c:name>[Statistiques Descriptives.xlsx]Titanic_correction!Tableau croisé dynamique10</c:name>
     <c:fmtId val="5"/>
   </c:pivotSource>
   <c:chart>
@@ -14387,7 +14409,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>522218</xdr:colOff>
+      <xdr:colOff>522219</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>31242</xdr:rowOff>
     </xdr:to>
@@ -16500,10 +16522,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Anthony SARDELLITTI" refreshedDate="44175.870670949073" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="152" xr:uid="{1096F353-864A-4508-947A-2FCCB4E39046}">
   <cacheSource type="worksheet">
@@ -27478,225 +27496,6 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{ADC4141F-390F-4E94-B0DB-C9F4CEA00FC3}" name="Tableau croisé dynamique2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="I52:J57" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="5">
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="7">
-        <item h="1" x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Nombre de Sepal_Length" fld="0" subtotal="count" baseField="0" baseItem="1"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{ABF5C64C-EFE0-458C-AA10-1F250AC653CC}" name="Tableau croisé dynamique1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Species">
-  <location ref="I44:M48" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="1">
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item h="1" x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-  </colItems>
-  <dataFields count="4">
-    <dataField name="effectif" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField name="effectif cum." fld="0" subtotal="count" showDataAs="runTotal" baseField="0" baseItem="0"/>
-    <dataField name="fréquence" fld="0" subtotal="count" showDataAs="percentOfTotal" baseField="0" baseItem="0" numFmtId="9"/>
-    <dataField name="Fréquence cum." fld="0" subtotal="count" baseField="0" baseItem="0" numFmtId="9">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{E15A36E0-9728-4e99-A89B-3F7291B0FE68}">
-          <x14:dataField pivotShowAs="percentOfRunningTotal"/>
-        </ext>
-      </extLst>
-    </dataField>
-  </dataFields>
-  <formats count="1">
-    <format dxfId="1">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="2" selected="0">
-            <x v="2"/>
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4BBA25E8-9ECB-4B87-AAB4-C9988B5FDCC5}" name="Tableau croisé dynamique42" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Moyenne" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="I71:K75" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="5">
-    <pivotField dataField="1" showAll="0">
-      <items count="7">
-        <item h="1" x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item h="1" x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="4"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="Moyenne de Sepal_Length" fld="0" subtotal="average" baseField="4" baseItem="0"/>
-    <dataField name="Varp de Sepal_Length" fld="0" subtotal="varp" baseField="4" baseItem="0"/>
-  </dataFields>
-  <formats count="1">
-    <format dxfId="2">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{09B93F31-15A1-4128-9A64-0751BE71777C}" name="Tableau croisé dynamique3" cacheId="1" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Moyenne" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="I61:M66" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
@@ -27763,6 +27562,225 @@
     <dataField name="Moy. Sepal_Width" fld="1" subtotal="average" baseField="4" baseItem="0"/>
     <dataField name="Moy. Petal_Length" fld="2" subtotal="average" baseField="4" baseItem="0"/>
     <dataField name="Moy. Petal_Width" fld="3" subtotal="average" baseField="4" baseItem="0"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="1">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{ADC4141F-390F-4E94-B0DB-C9F4CEA00FC3}" name="Tableau croisé dynamique2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="I52:J57" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="5">
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="7">
+        <item h="1" x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Nombre de Sepal_Length" fld="0" subtotal="count" baseField="0" baseItem="1"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{ABF5C64C-EFE0-458C-AA10-1F250AC653CC}" name="Tableau croisé dynamique1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Species">
+  <location ref="I44:M48" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="1">
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item h="1" x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+  </colItems>
+  <dataFields count="4">
+    <dataField name="effectif" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="effectif cum." fld="0" subtotal="count" showDataAs="runTotal" baseField="0" baseItem="0"/>
+    <dataField name="fréquence" fld="0" subtotal="count" showDataAs="percentOfTotal" baseField="0" baseItem="0" numFmtId="9"/>
+    <dataField name="Fréquence cum." fld="0" subtotal="count" baseField="0" baseItem="0" numFmtId="9">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{E15A36E0-9728-4e99-A89B-3F7291B0FE68}">
+          <x14:dataField pivotShowAs="percentOfRunningTotal"/>
+        </ext>
+      </extLst>
+    </dataField>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="2">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="2" selected="0">
+            <x v="2"/>
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4BBA25E8-9ECB-4B87-AAB4-C9988B5FDCC5}" name="Tableau croisé dynamique42" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Moyenne" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="I71:K75" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="5">
+    <pivotField dataField="1" showAll="0">
+      <items count="7">
+        <item h="1" x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item h="1" x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Moyenne de Sepal_Length" fld="0" subtotal="average" baseField="4" baseItem="0"/>
+    <dataField name="Varp de Sepal_Length" fld="0" subtotal="varp" baseField="4" baseItem="0"/>
   </dataFields>
   <formats count="1">
     <format dxfId="3">
@@ -28535,15 +28553,15 @@
   <dimension ref="A1:AF151"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="R86" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I72" sqref="I72"/>
+      <selection pane="bottomRight" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
@@ -29169,17 +29187,17 @@
       </c>
       <c r="H21" s="5"/>
       <c r="O21" s="5"/>
-      <c r="P21" s="40" t="s">
+      <c r="P21" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="Q21" s="40"/>
-      <c r="R21" s="40"/>
-      <c r="S21" s="40"/>
-      <c r="T21" s="40"/>
-      <c r="U21" s="40"/>
-      <c r="V21" s="40"/>
-      <c r="W21" s="40"/>
-      <c r="X21" s="40"/>
+      <c r="Q21" s="46"/>
+      <c r="R21" s="46"/>
+      <c r="S21" s="46"/>
+      <c r="T21" s="46"/>
+      <c r="U21" s="46"/>
+      <c r="V21" s="46"/>
+      <c r="W21" s="46"/>
+      <c r="X21" s="46"/>
       <c r="Z21" s="5"/>
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.25">
@@ -29206,15 +29224,15 @@
         <v>16</v>
       </c>
       <c r="O22" s="5"/>
-      <c r="P22" s="40"/>
-      <c r="Q22" s="40"/>
-      <c r="R22" s="40"/>
-      <c r="S22" s="40"/>
-      <c r="T22" s="40"/>
-      <c r="U22" s="40"/>
-      <c r="V22" s="40"/>
-      <c r="W22" s="40"/>
-      <c r="X22" s="40"/>
+      <c r="P22" s="46"/>
+      <c r="Q22" s="46"/>
+      <c r="R22" s="46"/>
+      <c r="S22" s="46"/>
+      <c r="T22" s="46"/>
+      <c r="U22" s="46"/>
+      <c r="V22" s="46"/>
+      <c r="W22" s="46"/>
+      <c r="X22" s="46"/>
       <c r="Z22" s="5"/>
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.25">
@@ -29268,11 +29286,11 @@
       <c r="L24" s="27"/>
       <c r="M24" s="27"/>
       <c r="O24" s="5"/>
-      <c r="Q24" s="41" t="s">
+      <c r="Q24" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="R24" s="42"/>
-      <c r="S24" s="43"/>
+      <c r="R24" s="48"/>
+      <c r="S24" s="49"/>
       <c r="U24" s="34"/>
       <c r="V24" s="35"/>
       <c r="W24" s="35"/>
@@ -32705,6 +32723,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F151" xr:uid="{625763FE-A400-4E9F-A3F8-85D87AE95230}"/>
   <mergeCells count="2">
     <mergeCell ref="P21:X22"/>
     <mergeCell ref="Q24:S24"/>
@@ -32755,11 +32774,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48850897-68F3-41F6-A17F-5AD695998499}">
   <dimension ref="A1:Z1314"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G14" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="6" ySplit="1" topLeftCell="G56" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J41" sqref="J41"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32971,11 +32990,11 @@
       <c r="W7" s="28" t="s">
         <v>1401</v>
       </c>
-      <c r="X7" s="45" t="s">
+      <c r="X7" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="Y7" s="46"/>
-      <c r="Z7" s="47"/>
+      <c r="Y7" s="52"/>
+      <c r="Z7" s="53"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -33041,10 +33060,10 @@
       <c r="W9" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="X9" s="29">
+      <c r="X9" s="56">
         <v>129</v>
       </c>
-      <c r="Y9" s="29">
+      <c r="Y9" s="56">
         <v>193</v>
       </c>
       <c r="Z9" s="29">
@@ -33078,10 +33097,10 @@
       <c r="W10" s="27" t="s">
         <v>390</v>
       </c>
-      <c r="X10" s="29">
+      <c r="X10" s="56">
         <v>161</v>
       </c>
-      <c r="Y10" s="29">
+      <c r="Y10" s="56">
         <v>119</v>
       </c>
       <c r="Z10" s="29">
@@ -33115,10 +33134,10 @@
       <c r="W11" s="27" t="s">
         <v>671</v>
       </c>
-      <c r="X11" s="29">
+      <c r="X11" s="56">
         <v>573</v>
       </c>
-      <c r="Y11" s="29">
+      <c r="Y11" s="56">
         <v>138</v>
       </c>
       <c r="Z11" s="29">
@@ -33247,11 +33266,11 @@
       <c r="W15" s="28" t="s">
         <v>1402</v>
       </c>
-      <c r="X15" s="45" t="s">
+      <c r="X15" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="Y15" s="46"/>
-      <c r="Z15" s="47"/>
+      <c r="Y15" s="52"/>
+      <c r="Z15" s="53"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
@@ -33313,9 +33332,9 @@
       <c r="W17" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="X17" s="30"/>
-      <c r="Y17" s="30"/>
-      <c r="Z17" s="29"/>
+      <c r="X17" s="54"/>
+      <c r="Y17" s="54"/>
+      <c r="Z17" s="30"/>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
@@ -33342,9 +33361,9 @@
       <c r="W18" s="27" t="s">
         <v>390</v>
       </c>
-      <c r="X18" s="30"/>
-      <c r="Y18" s="30"/>
-      <c r="Z18" s="29"/>
+      <c r="X18" s="54"/>
+      <c r="Y18" s="54"/>
+      <c r="Z18" s="30"/>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
@@ -33371,9 +33390,9 @@
       <c r="W19" s="27" t="s">
         <v>671</v>
       </c>
-      <c r="X19" s="30"/>
-      <c r="Y19" s="30"/>
-      <c r="Z19" s="29"/>
+      <c r="X19" s="54"/>
+      <c r="Y19" s="54"/>
+      <c r="Z19" s="30"/>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
@@ -33400,9 +33419,9 @@
       <c r="W20" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="X20" s="29"/>
-      <c r="Y20" s="29"/>
-      <c r="Z20" s="29"/>
+      <c r="X20" s="30"/>
+      <c r="Y20" s="30"/>
+      <c r="Z20" s="30"/>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
@@ -33508,11 +33527,11 @@
       <c r="W24" s="28" t="s">
         <v>1405</v>
       </c>
-      <c r="X24" s="45" t="s">
+      <c r="X24" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="Y24" s="46"/>
-      <c r="Z24" s="47"/>
+      <c r="Y24" s="52"/>
+      <c r="Z24" s="53"/>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
@@ -33578,8 +33597,8 @@
       <c r="W26" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="X26" s="30"/>
-      <c r="Y26" s="30"/>
+      <c r="X26" s="54"/>
+      <c r="Y26" s="54"/>
       <c r="Z26" s="30"/>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.25">
@@ -33612,8 +33631,8 @@
       <c r="W27" s="27" t="s">
         <v>390</v>
       </c>
-      <c r="X27" s="30"/>
-      <c r="Y27" s="30"/>
+      <c r="X27" s="54"/>
+      <c r="Y27" s="54"/>
       <c r="Z27" s="30"/>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.25">
@@ -33636,12 +33655,12 @@
         <v>0</v>
       </c>
       <c r="H28" s="5"/>
-      <c r="I28" s="40" t="s">
+      <c r="I28" s="46" t="s">
         <v>1381</v>
       </c>
-      <c r="J28" s="40"/>
-      <c r="K28" s="40"/>
-      <c r="L28" s="40"/>
+      <c r="J28" s="46"/>
+      <c r="K28" s="46"/>
+      <c r="L28" s="46"/>
       <c r="N28" s="5"/>
       <c r="P28" s="37"/>
       <c r="S28" s="16"/>
@@ -33649,8 +33668,8 @@
       <c r="W28" s="27" t="s">
         <v>671</v>
       </c>
-      <c r="X28" s="30"/>
-      <c r="Y28" s="30"/>
+      <c r="X28" s="54"/>
+      <c r="Y28" s="54"/>
       <c r="Z28" s="30"/>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.25">
@@ -33673,10 +33692,10 @@
         <v>0</v>
       </c>
       <c r="H29" s="5"/>
-      <c r="I29" s="40"/>
-      <c r="J29" s="40"/>
-      <c r="K29" s="40"/>
-      <c r="L29" s="40"/>
+      <c r="I29" s="46"/>
+      <c r="J29" s="46"/>
+      <c r="K29" s="46"/>
+      <c r="L29" s="46"/>
       <c r="N29" s="5"/>
       <c r="P29" s="37"/>
       <c r="S29" s="16"/>
@@ -33686,7 +33705,7 @@
       </c>
       <c r="X29" s="30"/>
       <c r="Y29" s="30"/>
-      <c r="Z29" s="30"/>
+      <c r="Z29" s="55"/>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
@@ -34077,11 +34096,11 @@
       <c r="W44" s="31" t="s">
         <v>1401</v>
       </c>
-      <c r="X44" s="44" t="s">
+      <c r="X44" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="Y44" s="44"/>
-      <c r="Z44" s="44"/>
+      <c r="Y44" s="50"/>
+      <c r="Z44" s="50"/>
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
@@ -34100,12 +34119,12 @@
         <v>0</v>
       </c>
       <c r="H45" s="5"/>
-      <c r="I45" s="40" t="s">
+      <c r="I45" s="46" t="s">
         <v>1382</v>
       </c>
-      <c r="J45" s="40"/>
-      <c r="K45" s="40"/>
-      <c r="L45" s="40"/>
+      <c r="J45" s="46"/>
+      <c r="K45" s="46"/>
+      <c r="L45" s="46"/>
       <c r="N45" s="5"/>
       <c r="U45" s="5"/>
       <c r="W45" s="27" t="s">
@@ -34141,10 +34160,10 @@
         <v>1</v>
       </c>
       <c r="H46" s="5"/>
-      <c r="I46" s="40"/>
-      <c r="J46" s="40"/>
-      <c r="K46" s="40"/>
-      <c r="L46" s="40"/>
+      <c r="I46" s="46"/>
+      <c r="J46" s="46"/>
+      <c r="K46" s="46"/>
+      <c r="L46" s="46"/>
       <c r="N46" s="5"/>
       <c r="O46" s="6" t="s">
         <v>1394</v>
@@ -34388,11 +34407,11 @@
       <c r="W53" s="28" t="s">
         <v>1402</v>
       </c>
-      <c r="X53" s="44" t="s">
+      <c r="X53" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="Y53" s="44"/>
-      <c r="Z53" s="44"/>
+      <c r="Y53" s="50"/>
+      <c r="Z53" s="50"/>
     </row>
     <row r="54" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
@@ -34681,22 +34700,22 @@
         <v>0</v>
       </c>
       <c r="H63" s="5"/>
-      <c r="I63" s="40" t="s">
+      <c r="I63" s="46" t="s">
         <v>1390</v>
       </c>
-      <c r="J63" s="40"/>
-      <c r="K63" s="40"/>
-      <c r="L63" s="40"/>
+      <c r="J63" s="46"/>
+      <c r="K63" s="46"/>
+      <c r="L63" s="46"/>
       <c r="N63" s="5"/>
       <c r="U63" s="5"/>
       <c r="W63" s="28" t="s">
         <v>1405</v>
       </c>
-      <c r="X63" s="44" t="s">
+      <c r="X63" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="Y63" s="44"/>
-      <c r="Z63" s="44"/>
+      <c r="Y63" s="50"/>
+      <c r="Z63" s="50"/>
     </row>
     <row r="64" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
@@ -34718,10 +34737,10 @@
         <v>1</v>
       </c>
       <c r="H64" s="5"/>
-      <c r="I64" s="40"/>
-      <c r="J64" s="40"/>
-      <c r="K64" s="40"/>
-      <c r="L64" s="40"/>
+      <c r="I64" s="46"/>
+      <c r="J64" s="46"/>
+      <c r="K64" s="46"/>
+      <c r="L64" s="46"/>
       <c r="N64" s="5"/>
       <c r="U64" s="5"/>
       <c r="W64" s="27" t="s">
@@ -34757,10 +34776,10 @@
         <v>1</v>
       </c>
       <c r="H65" s="5"/>
-      <c r="I65" s="40"/>
-      <c r="J65" s="40"/>
-      <c r="K65" s="40"/>
-      <c r="L65" s="40"/>
+      <c r="I65" s="46"/>
+      <c r="J65" s="46"/>
+      <c r="K65" s="46"/>
+      <c r="L65" s="46"/>
       <c r="N65" s="5"/>
       <c r="U65" s="5"/>
       <c r="W65" s="27" t="s">
@@ -58152,6 +58171,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F1314" xr:uid="{48850897-68F3-41F6-A17F-5AD695998499}"/>
   <mergeCells count="9">
     <mergeCell ref="I63:L65"/>
     <mergeCell ref="X53:Z53"/>
@@ -58173,7 +58193,7 @@
   <dimension ref="A1:AR151"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="AH2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="AM8" sqref="AM8:AR8"/>
@@ -58412,17 +58432,17 @@
       <c r="AM8" t="s">
         <v>1419</v>
       </c>
-      <c r="AN8" s="48" t="s">
+      <c r="AN8" s="40" t="s">
         <v>1418</v>
       </c>
-      <c r="AO8" s="50">
+      <c r="AO8" s="42">
         <f>$AK$10-$AK$13*($AK$11/SQRT($AK$9))</f>
         <v>3.476305780128385</v>
       </c>
       <c r="AP8" s="25" t="s">
         <v>1421</v>
       </c>
-      <c r="AQ8" s="51">
+      <c r="AQ8" s="43">
         <f>$AK$10+$AK$13*($AK$11/SQRT($AK$9))</f>
         <v>4.0410275532049535</v>
       </c>
@@ -58488,7 +58508,7 @@
         <f>AVERAGE(D:D)</f>
         <v>3.7586666666666693</v>
       </c>
-      <c r="AO10" s="50"/>
+      <c r="AO10" s="42"/>
     </row>
     <row r="11" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
@@ -58548,7 +58568,7 @@
       <c r="AJ12" t="s">
         <v>1423</v>
       </c>
-      <c r="AK12" s="49">
+      <c r="AK12" s="41">
         <v>0.05</v>
       </c>
     </row>
@@ -58577,7 +58597,7 @@
       <c r="AJ13" t="s">
         <v>1422</v>
       </c>
-      <c r="AK13" s="50">
+      <c r="AK13" s="42">
         <f>NORMINV(AJ14,0,1)</f>
         <v>1.9599639845400536</v>
       </c>
@@ -58860,17 +58880,17 @@
       </c>
       <c r="H21" s="5"/>
       <c r="O21" s="5"/>
-      <c r="P21" s="40" t="s">
+      <c r="P21" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="Q21" s="40"/>
-      <c r="R21" s="40"/>
-      <c r="S21" s="40"/>
-      <c r="T21" s="40"/>
-      <c r="U21" s="40"/>
-      <c r="V21" s="40"/>
-      <c r="W21" s="40"/>
-      <c r="X21" s="40"/>
+      <c r="Q21" s="46"/>
+      <c r="R21" s="46"/>
+      <c r="S21" s="46"/>
+      <c r="T21" s="46"/>
+      <c r="U21" s="46"/>
+      <c r="V21" s="46"/>
+      <c r="W21" s="46"/>
+      <c r="X21" s="46"/>
       <c r="Z21" s="5"/>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.25">
@@ -58897,15 +58917,15 @@
         <v>16</v>
       </c>
       <c r="O22" s="5"/>
-      <c r="P22" s="40"/>
-      <c r="Q22" s="40"/>
-      <c r="R22" s="40"/>
-      <c r="S22" s="40"/>
-      <c r="T22" s="40"/>
-      <c r="U22" s="40"/>
-      <c r="V22" s="40"/>
-      <c r="W22" s="40"/>
-      <c r="X22" s="40"/>
+      <c r="P22" s="46"/>
+      <c r="Q22" s="46"/>
+      <c r="R22" s="46"/>
+      <c r="S22" s="46"/>
+      <c r="T22" s="46"/>
+      <c r="U22" s="46"/>
+      <c r="V22" s="46"/>
+      <c r="W22" s="46"/>
+      <c r="X22" s="46"/>
       <c r="Z22" s="5"/>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.25">
@@ -58971,11 +58991,11 @@
         <v>0.3</v>
       </c>
       <c r="O24" s="5"/>
-      <c r="Q24" s="41" t="s">
+      <c r="Q24" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="R24" s="42"/>
-      <c r="S24" s="43"/>
+      <c r="R24" s="48"/>
+      <c r="S24" s="49"/>
       <c r="Z24" s="5"/>
       <c r="AA24" s="6" t="s">
         <v>53</v>
@@ -62732,11 +62752,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{257D7FCA-E541-4A60-A48B-1F34EFD6CCE6}">
   <dimension ref="A1:AJ1314"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="6" ySplit="1" topLeftCell="Z2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AC17" sqref="AC17"/>
+      <selection pane="bottomRight" activeCell="AA17" sqref="AA17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -62914,14 +62934,14 @@
       <c r="AF5" t="s">
         <v>1418</v>
       </c>
-      <c r="AG5" s="53">
+      <c r="AG5" s="45">
         <f>AC5-AC7*SQRT((AC5*(1-AC5))/AC4)</f>
         <v>0.31609408905210412</v>
       </c>
-      <c r="AH5" s="53" t="s">
+      <c r="AH5" s="45" t="s">
         <v>1421</v>
       </c>
-      <c r="AI5" s="53">
+      <c r="AI5" s="45">
         <f>AC5+AC7*SQRT((AC5*(1-AC5))/AC4)</f>
         <v>0.38390591094789583</v>
       </c>
@@ -62983,16 +63003,16 @@
       <c r="W7" s="28" t="s">
         <v>1401</v>
       </c>
-      <c r="X7" s="45" t="s">
+      <c r="X7" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="Y7" s="46"/>
-      <c r="Z7" s="47"/>
+      <c r="Y7" s="52"/>
+      <c r="Z7" s="53"/>
       <c r="AB7">
         <f>1-AC6/2</f>
         <v>0.995</v>
       </c>
-      <c r="AC7" s="50">
+      <c r="AC7" s="42">
         <f>NORMINV(AB7,0,1)</f>
         <v>2.5758293035488999</v>
       </c>
@@ -63264,11 +63284,11 @@
       <c r="W15" s="28" t="s">
         <v>1402</v>
       </c>
-      <c r="X15" s="45" t="s">
+      <c r="X15" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="Y15" s="46"/>
-      <c r="Z15" s="47"/>
+      <c r="Y15" s="52"/>
+      <c r="Z15" s="53"/>
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
@@ -63569,12 +63589,12 @@
         <v>1</v>
       </c>
       <c r="H23" s="5"/>
-      <c r="I23" s="40" t="s">
+      <c r="I23" s="46" t="s">
         <v>1381</v>
       </c>
-      <c r="J23" s="40"/>
-      <c r="K23" s="40"/>
-      <c r="L23" s="40"/>
+      <c r="J23" s="46"/>
+      <c r="K23" s="46"/>
+      <c r="L23" s="46"/>
       <c r="N23" s="5"/>
       <c r="U23" s="5"/>
     </row>
@@ -63598,20 +63618,20 @@
         <v>0</v>
       </c>
       <c r="H24" s="5"/>
-      <c r="I24" s="40"/>
-      <c r="J24" s="40"/>
-      <c r="K24" s="40"/>
-      <c r="L24" s="40"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="46"/>
+      <c r="K24" s="46"/>
+      <c r="L24" s="46"/>
       <c r="N24" s="5"/>
       <c r="U24" s="5"/>
       <c r="W24" s="28" t="s">
         <v>1405</v>
       </c>
-      <c r="X24" s="45" t="s">
+      <c r="X24" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="Y24" s="46"/>
-      <c r="Z24" s="47"/>
+      <c r="Y24" s="52"/>
+      <c r="Z24" s="53"/>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
@@ -63716,7 +63736,7 @@
       <c r="I27" s="8">
         <v>0</v>
       </c>
-      <c r="J27" s="52">
+      <c r="J27" s="44">
         <v>0.65727341964965724</v>
       </c>
       <c r="N27" s="5"/>
@@ -63760,7 +63780,7 @@
       <c r="I28" s="8">
         <v>1</v>
       </c>
-      <c r="J28" s="52">
+      <c r="J28" s="44">
         <v>0.3427265803503427</v>
       </c>
       <c r="N28" s="5"/>
@@ -63804,7 +63824,7 @@
       <c r="I29" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="J29" s="52">
+      <c r="J29" s="44">
         <v>1</v>
       </c>
       <c r="N29" s="5"/>
@@ -63953,12 +63973,12 @@
         <v>0</v>
       </c>
       <c r="H34" s="5"/>
-      <c r="I34" s="40" t="s">
+      <c r="I34" s="46" t="s">
         <v>1382</v>
       </c>
-      <c r="J34" s="40"/>
-      <c r="K34" s="40"/>
-      <c r="L34" s="40"/>
+      <c r="J34" s="46"/>
+      <c r="K34" s="46"/>
+      <c r="L34" s="46"/>
       <c r="N34" s="5"/>
       <c r="U34" s="5"/>
     </row>
@@ -63982,10 +64002,10 @@
         <v>0</v>
       </c>
       <c r="H35" s="5"/>
-      <c r="I35" s="40"/>
-      <c r="J35" s="40"/>
-      <c r="K35" s="40"/>
-      <c r="L35" s="40"/>
+      <c r="I35" s="46"/>
+      <c r="J35" s="46"/>
+      <c r="K35" s="46"/>
+      <c r="L35" s="46"/>
       <c r="N35" s="23"/>
       <c r="O35" s="7"/>
       <c r="U35" s="5"/>
@@ -64272,11 +64292,11 @@
       <c r="W44" s="31" t="s">
         <v>1401</v>
       </c>
-      <c r="X44" s="44" t="s">
+      <c r="X44" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="Y44" s="44"/>
-      <c r="Z44" s="44"/>
+      <c r="Y44" s="50"/>
+      <c r="Z44" s="50"/>
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
@@ -64333,12 +64353,12 @@
         <v>1</v>
       </c>
       <c r="H46" s="5"/>
-      <c r="I46" s="40" t="s">
+      <c r="I46" s="46" t="s">
         <v>1390</v>
       </c>
-      <c r="J46" s="40"/>
-      <c r="K46" s="40"/>
-      <c r="L46" s="40"/>
+      <c r="J46" s="46"/>
+      <c r="K46" s="46"/>
+      <c r="L46" s="46"/>
       <c r="N46" s="5"/>
       <c r="O46" s="6" t="s">
         <v>1394</v>
@@ -64377,10 +64397,10 @@
         <v>0</v>
       </c>
       <c r="H47" s="5"/>
-      <c r="I47" s="40"/>
-      <c r="J47" s="40"/>
-      <c r="K47" s="40"/>
-      <c r="L47" s="40"/>
+      <c r="I47" s="46"/>
+      <c r="J47" s="46"/>
+      <c r="K47" s="46"/>
+      <c r="L47" s="46"/>
       <c r="N47" s="5"/>
       <c r="U47" s="5"/>
       <c r="W47" s="27" t="s">
@@ -64416,10 +64436,10 @@
         <v>0</v>
       </c>
       <c r="H48" s="5"/>
-      <c r="I48" s="40"/>
-      <c r="J48" s="40"/>
-      <c r="K48" s="40"/>
-      <c r="L48" s="40"/>
+      <c r="I48" s="46"/>
+      <c r="J48" s="46"/>
+      <c r="K48" s="46"/>
+      <c r="L48" s="46"/>
       <c r="N48" s="5"/>
       <c r="U48" s="5"/>
       <c r="W48" s="27" t="s">
@@ -64620,11 +64640,11 @@
       <c r="W53" s="28" t="s">
         <v>1402</v>
       </c>
-      <c r="X53" s="44" t="s">
+      <c r="X53" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="Y53" s="44"/>
-      <c r="Z53" s="44"/>
+      <c r="Y53" s="50"/>
+      <c r="Z53" s="50"/>
     </row>
     <row r="54" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
@@ -64977,11 +64997,11 @@
       <c r="W63" s="28" t="s">
         <v>1405</v>
       </c>
-      <c r="X63" s="44" t="s">
+      <c r="X63" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="Y63" s="44"/>
-      <c r="Z63" s="44"/>
+      <c r="Y63" s="50"/>
+      <c r="Z63" s="50"/>
     </row>
     <row r="64" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
